--- a/data/excel/actus-tests-lax.xlsx
+++ b/data/excel/actus-tests-lax.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="184">
   <si>
     <t>contractType</t>
   </si>
@@ -238,7 +238,7 @@
     <t>["2021-01-01T00:00:00"]</t>
   </si>
   <si>
-    <t>["P1YL0"]</t>
+    <t>["P1YL1"]</t>
   </si>
   <si>
     <t>30E360</t>
@@ -292,22 +292,22 @@
     <t>lax10</t>
   </si>
   <si>
-    <t>["P6ML0"]</t>
-  </si>
-  <si>
-    <t>2024-07-01T00:00:00</t>
+    <t>["P6ML1"]</t>
+  </si>
+  <si>
+    <t>2024-01-01T00:00:00</t>
   </si>
   <si>
     <t>lax11</t>
   </si>
   <si>
-    <t>["P1ML0"]</t>
+    <t>["P1ML1"]</t>
   </si>
   <si>
     <t>[10]</t>
   </si>
   <si>
-    <t>2023-01-01T00:00:00</t>
+    <t>2022-12-01T00:00:00</t>
   </si>
   <si>
     <t>lax12</t>
@@ -316,13 +316,16 @@
     <t>["2021-01-01T00:00:00","2022-01-01T00:00:00","2023-01-01T00:00:00","2024-01-01T00:00:00","2025-01-01T00:00:00"]</t>
   </si>
   <si>
+    <t>[20,20,20,20,20]</t>
+  </si>
+  <si>
+    <t>["DEC","DEC","DEC","DEC","DEC"]</t>
+  </si>
+  <si>
     <t>lax13</t>
   </si>
   <si>
-    <t>["P1YL0","P1YL0","P1YL0","P1YL0","P1YL0"]</t>
-  </si>
-  <si>
-    <t>[20,20,20,20,20]</t>
+    <t>["P1YL1","P1YL1","P1YL1","P1YL1","P1YL1"]</t>
   </si>
   <si>
     <t>lax14</t>
@@ -334,16 +337,16 @@
     <t>[10,20,30,40]</t>
   </si>
   <si>
-    <t>2024-01-01T00:00:00</t>
+    <t>["DEC","DEC","DEC","DEC"]</t>
   </si>
   <si>
     <t>lax15</t>
   </si>
   <si>
-    <t>["P1QL0","P2QL0","P1YL0","P1YL0"]</t>
-  </si>
-  <si>
-    <t>[2.5,5,30,40]</t>
+    <t>["P3ML1","P6ML1","P1YL1","P1YL1"]</t>
+  </si>
+  <si>
+    <t>[2.5,10,30,40]</t>
   </si>
   <si>
     <t>lax16</t>
@@ -352,7 +355,7 @@
     <t>["2021-01-01T00:00:00","2027-01-01T00:00:00"]</t>
   </si>
   <si>
-    <t>["P1YL0","P1ML0"]</t>
+    <t>["P1YL1","P1ML1"]</t>
   </si>
   <si>
     <t>[20,20]</t>
@@ -361,16 +364,16 @@
     <t>["INC","DEC"]</t>
   </si>
   <si>
-    <t>2028-01-01T00:00:00</t>
+    <t>2027-12-01T00:00:00</t>
   </si>
   <si>
     <t>lax17</t>
   </si>
   <si>
-    <t>["P1YL0","P1QL0"]</t>
-  </si>
-  <si>
-    <t>[20,80]</t>
+    <t>["P1YL1","P3ML1"]</t>
+  </si>
+  <si>
+    <t>[20,60]</t>
   </si>
   <si>
     <t>["2022-01-01T00:00:00","2023-01-01T00:00:00","2024-01-01T00:00:00"]</t>
@@ -382,19 +385,19 @@
     <t>["FIX","FIX","FIX"]</t>
   </si>
   <si>
+    <t>2027-10-01T00:00:00</t>
+  </si>
+  <si>
     <t>lax18</t>
   </si>
   <si>
-    <t>[0.02,0.03,0.04]</t>
-  </si>
-  <si>
     <t>["VAR","VAR","VAR"]</t>
   </si>
   <si>
     <t>LIBORUSD3M</t>
   </si>
   <si>
-    <t>{"LIBORUSD3M":{"identifier":"LIBORUSD3M","data":[{"timestamp":"2022-01-01T00:00:00","value":"0.01"},{"timestamp":"2023-01-01T00:00:00","value":"0.005"},{"timestamp":"2024-01-01T00:00:00","value":"0.02"}]}}</t>
+    <t>{"LIBORUSD3M":{"identifier":"LIBORUSD3M","data":[{"timestamp":"2022-01-01T00:00:00","value":"0.02"},{"timestamp":"2023-01-01T00:00:00","value":"0.0"},{"timestamp":"2024-01-01T00:00:00","value":"0.01"}]}}</t>
   </si>
   <si>
     <t>eventDate</t>
@@ -410,17 +413,191 @@
   </si>
   <si>
     <t>IED</t>
+  </si>
+  <si>
+    <t>-100.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2021-01-01T00:00</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>2022-01-01T00:00</t>
+  </si>
+  <si>
+    <t>2023-01-01T00:00</t>
+  </si>
+  <si>
+    <t>2024-01-01T00:00</t>
+  </si>
+  <si>
+    <t>2024-12-31T00:00</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>-120.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>-80.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>2025-01-01T00:00</t>
+  </si>
+  <si>
+    <t>2026-01-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-07-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-07-01T00:00</t>
+  </si>
+  <si>
+    <t>2023-07-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-02-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-03-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-04-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-05-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-06-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-08-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-09-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-10-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-11-01T00:00</t>
+  </si>
+  <si>
+    <t>2021-12-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-02-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-03-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-04-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-05-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-06-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-08-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-09-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-10-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-11-01T00:00</t>
+  </si>
+  <si>
+    <t>2022-12-01T00:00</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>2027-01-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-02-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-03-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-04-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-05-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-06-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-07-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-08-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-09-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-10-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-11-01T00:00</t>
+  </si>
+  <si>
+    <t>2027-12-01T00:00</t>
+  </si>
+  <si>
+    <t>RRF</t>
+  </si>
+  <si>
+    <t>RR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000000000000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000000000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="171" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -440,9 +617,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
     <font>
       <name val="Arial"/>
     </font>
@@ -478,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -497,69 +671,105 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1026,13 +1236,13 @@
       <c r="B2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -1047,25 +1257,25 @@
       <c r="I2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>100.0</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R2" s="5">
@@ -1074,29 +1284,29 @@
       <c r="S2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
+      <c r="BC2" s="7"/>
+      <c r="BD2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1105,7 +1315,7 @@
       <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1123,22 +1333,22 @@
       <c r="J3" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>120.0</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R3" s="5">
@@ -1147,29 +1357,29 @@
       <c r="S3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BB3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="10"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1178,7 +1388,7 @@
       <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -1196,22 +1406,22 @@
       <c r="J4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>80.0</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R4" s="5">
@@ -1220,29 +1430,29 @@
       <c r="S4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB4" s="7" t="s">
+      <c r="BB4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="8"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1251,7 +1461,7 @@
       <c r="D5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -1269,20 +1479,20 @@
       <c r="J5" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="9">
+      <c r="N5" s="6"/>
+      <c r="O5" s="8">
         <v>100.0</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R5" s="5">
@@ -1291,175 +1501,175 @@
       <c r="S5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB5" s="12" t="s">
+      <c r="BB5" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="10"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="11">
         <v>-10.0</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="14">
+      <c r="N6" s="6"/>
+      <c r="O6" s="12">
         <v>100.0</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R6" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S6" s="6" t="s">
+      <c r="R6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="X6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB6" s="7" t="s">
+      <c r="BB6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="10"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="14">
+      <c r="M7" s="13"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="12">
         <v>100.0</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="6" t="s">
+      <c r="R7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="W7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="6" t="s">
+      <c r="X7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="6" t="s">
+      <c r="Y7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB7" s="7" t="s">
+      <c r="BB7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="10"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1468,7 +1678,7 @@
       <c r="D8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1486,51 +1696,51 @@
       <c r="J8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="14">
+      <c r="N8" s="6"/>
+      <c r="O8" s="12">
         <v>100.0</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="11">
         <v>0.1</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y8" s="6" t="s">
+      <c r="Y8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB8" s="7" t="s">
+      <c r="BB8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="10"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1539,7 +1749,7 @@
       <c r="D9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1554,54 +1764,54 @@
       <c r="I9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="16">
+      <c r="N9" s="6"/>
+      <c r="O9" s="12">
         <v>100.0</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="P9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="11">
         <v>0.05</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W9" s="6" t="s">
+      <c r="W9" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y9" s="6" t="s">
+      <c r="Y9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB9" s="7" t="s">
+      <c r="BB9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="10"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1610,7 +1820,7 @@
       <c r="D10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1625,54 +1835,54 @@
       <c r="I10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="16">
+      <c r="N10" s="6"/>
+      <c r="O10" s="12">
         <v>100.0</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="5">
         <v>0.05</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="13" t="s">
+      <c r="V10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="W10" s="5" t="s">
         <v>69</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB10" s="12" t="s">
+      <c r="BB10" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="10"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1681,7 +1891,7 @@
       <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F11" s="5" t="s">
@@ -1699,20 +1909,20 @@
       <c r="J11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="16">
+      <c r="N11" s="6"/>
+      <c r="O11" s="12">
         <v>100.0</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="11" t="s">
         <v>87</v>
       </c>
       <c r="R11" s="5">
@@ -1721,29 +1931,29 @@
       <c r="S11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="W11" s="13" t="s">
+      <c r="W11" s="11" t="s">
         <v>87</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y11" s="6" t="s">
+      <c r="Y11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB11" s="12" t="s">
+      <c r="BB11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="BC11" s="11"/>
-      <c r="BD11" s="10"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1752,7 +1962,7 @@
       <c r="D12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1770,20 +1980,20 @@
       <c r="J12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="9">
+      <c r="N12" s="6"/>
+      <c r="O12" s="8">
         <v>120.0</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="11" t="s">
         <v>90</v>
       </c>
       <c r="R12" s="5">
@@ -1792,29 +2002,29 @@
       <c r="S12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="W12" s="13" t="s">
+      <c r="W12" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="X12" s="13" t="s">
+      <c r="X12" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="BB12" s="12" t="s">
+      <c r="BB12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="BC12" s="11"/>
-      <c r="BD12" s="10"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1823,7 +2033,7 @@
       <c r="D13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -1841,48 +2051,48 @@
       <c r="J13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N13" s="7"/>
-      <c r="O13" s="9">
+      <c r="N13" s="6"/>
+      <c r="O13" s="8">
         <v>100.0</v>
       </c>
-      <c r="P13" s="13" t="s">
+      <c r="P13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="Q13" s="13"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="5">
         <v>0.05</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V13" s="13" t="s">
+      <c r="V13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB13" s="12" t="s">
+      <c r="W13" s="11"/>
+      <c r="X13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB13" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BC13" s="11"/>
-      <c r="BD13" s="10"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>95</v>
+      <c r="B14" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>58</v>
@@ -1890,7 +2100,7 @@
       <c r="D14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1908,52 +2118,52 @@
       <c r="J14" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="14">
+      <c r="N14" s="6"/>
+      <c r="O14" s="12">
         <v>100.0</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="R14" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB14" s="7" t="s">
+      <c r="BB14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="BC14" s="11"/>
-      <c r="BD14" s="10"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>98</v>
+      <c r="B15" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>58</v>
@@ -1961,7 +2171,7 @@
       <c r="D15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="5" t="s">
@@ -1979,48 +2189,48 @@
       <c r="J15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="16">
+      <c r="N15" s="6"/>
+      <c r="O15" s="12">
         <v>100.0</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q15" s="13"/>
+      <c r="P15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="11"/>
       <c r="R15" s="5">
         <v>0.05</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13" t="s">
+      <c r="V15" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="Y15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB15" s="12" t="s">
+      <c r="W15" s="11"/>
+      <c r="X15" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BC15" s="11"/>
-      <c r="BD15" s="10"/>
+      <c r="Y15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB15" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC15" s="9"/>
+      <c r="BD15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>102</v>
+      <c r="B16" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>58</v>
@@ -2028,7 +2238,7 @@
       <c r="D16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -2046,21 +2256,21 @@
       <c r="J16" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="16">
+      <c r="N16" s="6"/>
+      <c r="O16" s="12">
         <v>100.0</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>103</v>
+      <c r="P16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="R16" s="5">
         <v>0.05</v>
@@ -2068,30 +2278,30 @@
       <c r="S16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X16" s="13" t="s">
+      <c r="V16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W16" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="Y16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BB16" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC16" s="11"/>
-      <c r="BD16" s="10"/>
+      <c r="X16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC16" s="9"/>
+      <c r="BD16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>105</v>
+      <c r="B17" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>58</v>
@@ -2099,7 +2309,7 @@
       <c r="D17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2117,20 +2327,20 @@
       <c r="J17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="9">
+      <c r="N17" s="6"/>
+      <c r="O17" s="8">
         <v>120.0</v>
       </c>
-      <c r="P17" s="13" t="s">
+      <c r="P17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="11" t="s">
         <v>69</v>
       </c>
       <c r="R17" s="5">
@@ -2139,111 +2349,111 @@
       <c r="S17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V17" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="W17" s="13" t="s">
+      <c r="V17" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="X17" s="13" t="s">
+      <c r="W17" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Y17" s="13" t="s">
+      <c r="X17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="BB17" s="12" t="s">
+      <c r="Y17" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="BC17" s="11"/>
-      <c r="BD17" s="10"/>
+      <c r="BB17" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC17" s="9"/>
+      <c r="BD17" s="7"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="14">
+      <c r="N18" s="6"/>
+      <c r="O18" s="12">
         <v>120.0</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q18" s="6" t="s">
+      <c r="Q18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="R18" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="S18" s="6" t="s">
+      <c r="R18" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="W18" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="X18" s="13" t="s">
+      <c r="V18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="Y18" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP18" s="13" t="s">
+      <c r="X18" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="13" t="s">
+      <c r="Y18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP18" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AS18" s="13" t="s">
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="BB18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="10"/>
+      <c r="AS18" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="BB18" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC18" s="9"/>
+      <c r="BD18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>117</v>
+      <c r="B19" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>58</v>
@@ -2251,7 +2461,7 @@
       <c r="D19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -2269,20 +2479,20 @@
       <c r="J19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="L19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N19" s="7"/>
-      <c r="O19" s="16">
+      <c r="N19" s="6"/>
+      <c r="O19" s="12">
         <v>120.0</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="5" t="s">
         <v>69</v>
       </c>
       <c r="R19" s="5">
@@ -2291,46 +2501,46 @@
       <c r="S19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="W19" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="X19" s="6" t="s">
+      <c r="V19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP19" s="6" t="s">
+      <c r="X19" s="15" t="s">
         <v>114</v>
       </c>
+      <c r="Y19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP19" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="AQ19" s="5"/>
-      <c r="AR19" s="13" t="s">
+      <c r="AR19" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AS19" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AT19" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD19" s="10"/>
+      <c r="BC19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="BD19" s="7"/>
     </row>
     <row r="20">
-      <c r="BB20" s="8"/>
-      <c r="BC20" s="11"/>
-      <c r="BD20" s="8"/>
+      <c r="BB20" s="7"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="7"/>
     </row>
     <row r="22">
-      <c r="BC22" s="11"/>
+      <c r="BC22" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2348,48 +2558,301 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="19">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="19">
+        <v>100.0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="19">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="19">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="19">
+        <v>5.0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="19">
+        <v>80.0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="19">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="19">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="19">
+        <v>60.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="19">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="19">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="19">
+        <v>40.0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="19">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="19">
         <v>0.0</v>
       </c>
     </row>
@@ -2409,48 +2872,324 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="26">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="26">
+        <v>80.0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="26">
+        <v>80.0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="26">
+        <v>60.0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="26">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="26">
+        <v>40.0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="26">
+        <v>40.0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="26">
         <v>0.0</v>
       </c>
     </row>
@@ -2470,48 +3209,876 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="26">
+        <v>5.98333333333333</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="26">
+        <v>120.0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="26">
+        <v>110.0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="26">
+        <v>110.0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="26">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="26">
+        <v>90.0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.416666666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0.416666666666666</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="26">
+        <v>90.0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="26">
+        <v>80.0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="26">
+        <v>80.0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="26">
+        <v>70.0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="26">
+        <v>70.0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="26">
+        <v>60.0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.291666666666666</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0.291666666666666</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="26">
+        <v>60.0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="26">
+        <v>50.0</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="26">
+        <v>40.0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="26">
+        <v>0.208333333333333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="26">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="26">
+        <v>40.0</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0.166666666666666</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="26">
+        <v>0.166666666666666</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="26">
+        <v>30.0</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="F33" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="26">
+        <v>20.0</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="26">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="26">
+        <v>0.0416666666666666</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="26">
         <v>0.0</v>
       </c>
     </row>
@@ -2531,48 +4098,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="28">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="28">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="28">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="28">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="28">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="28">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="28">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="28">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="28">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="28">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="28">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="28">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="28">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="28">
         <v>0.0</v>
       </c>
     </row>
@@ -2592,48 +4389,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="29">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="29">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="29">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="29">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="29">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="29">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="29">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="29">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="29">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="29">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="29">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="29">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="29">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="29">
         <v>0.0</v>
       </c>
     </row>
@@ -2653,48 +4680,232 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="31">
+        <v>10.0</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="31">
+        <v>90.0</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="31">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="31">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="31">
+        <v>90.0</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="31">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="31">
+        <v>70.0</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="31">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="31">
+        <v>70.0</v>
+      </c>
+      <c r="F6" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="31">
+        <v>30.0</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="31">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="31">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="31">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="31">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="31">
+        <v>40.0</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="31">
+        <v>40.0</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="31">
         <v>0.0</v>
       </c>
     </row>
@@ -2714,48 +4925,416 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="33">
+        <v>97.5</v>
+      </c>
+      <c r="F3" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="33">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="33">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="33">
+        <v>97.5</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="33">
+        <v>95.0</v>
+      </c>
+      <c r="F5" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="33">
+        <v>1.21875</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="33">
+        <v>1.21875</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="33">
+        <v>95.0</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="33">
+        <v>92.5</v>
+      </c>
+      <c r="F7" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="33">
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1.1875</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="33">
+        <v>92.5</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="33">
+        <v>90.0</v>
+      </c>
+      <c r="F9" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="33">
+        <v>1.15625</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1.15625</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="33">
+        <v>90.0</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="33">
+        <v>80.0</v>
+      </c>
+      <c r="F11" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="33">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="33">
+        <v>1.125</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="33">
+        <v>80.0</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="33">
+        <v>10.0</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="33">
+        <v>70.0</v>
+      </c>
+      <c r="F13" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="33">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="33">
+        <v>70.0</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="33">
+        <v>30.0</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="33">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="33">
+        <v>1.75</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="33">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="33">
+        <v>40.0</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="33">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="33">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="33">
         <v>0.0</v>
       </c>
     </row>
@@ -2775,48 +5354,646 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="35">
+        <v>-20.0</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="35">
+        <v>140.0</v>
+      </c>
+      <c r="F3" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="35">
+        <v>5.98333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="35">
+        <v>5.98333333333333</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="35">
+        <v>140.0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-20.0</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="35">
+        <v>160.0</v>
+      </c>
+      <c r="F5" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="35">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="35">
+        <v>7.0</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="35">
+        <v>160.0</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="35">
+        <v>-20.0</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="35">
+        <v>180.0</v>
+      </c>
+      <c r="F7" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="35">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="35">
+        <v>8.0</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="35">
+        <v>180.0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="35">
+        <v>-20.0</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="35">
+        <v>200.0</v>
+      </c>
+      <c r="F9" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="35">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="35">
+        <v>9.0</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="35">
+        <v>200.0</v>
+      </c>
+      <c r="F10" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-20.0</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="35">
+        <v>220.0</v>
+      </c>
+      <c r="F11" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="35">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="35">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="35">
+        <v>220.0</v>
+      </c>
+      <c r="F12" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-20.0</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="35">
+        <v>240.0</v>
+      </c>
+      <c r="F13" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="35">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="35">
+        <v>11.0</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="35">
+        <v>240.0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="35">
+        <v>220.0</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G15" s="35">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="35">
+        <v>12.0</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="35">
+        <v>220.0</v>
+      </c>
+      <c r="F16" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G16" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="35">
+        <v>200.0</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G17" s="35">
+        <v>0.916666666666666</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="35">
+        <v>180.0</v>
+      </c>
+      <c r="F18" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="35">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="35">
+        <v>160.0</v>
+      </c>
+      <c r="F19" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="35">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="35">
+        <v>140.0</v>
+      </c>
+      <c r="F20" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G20" s="35">
+        <v>3.16666666666666</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="35">
+        <v>120.0</v>
+      </c>
+      <c r="F21" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="35">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="35">
+        <v>100.0</v>
+      </c>
+      <c r="F22" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G22" s="35">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="35">
+        <v>80.0</v>
+      </c>
+      <c r="F23" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G23" s="35">
+        <v>4.66666666666666</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="35">
+        <v>60.0</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G24" s="35">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="35">
+        <v>40.0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="35">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="F26" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G26" s="35">
+        <v>5.41666666666666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="35">
+        <v>5.5</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="F27" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G27" s="35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="35">
+        <v>20.0</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0.0</v>
+      </c>
+      <c r="F28" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="35">
         <v>0.0</v>
       </c>
     </row>
@@ -2836,48 +6013,531 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="37">
+        <v>-20.0</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="37">
+        <v>140.0</v>
+      </c>
+      <c r="F3" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="37">
+        <v>5.98333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="37">
+        <v>5.98333333333333</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="37">
+        <v>140.0</v>
+      </c>
+      <c r="F4" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="37">
+        <v>-20.0</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="37">
+        <v>160.0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="37">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="37">
+        <v>7.0</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="37">
+        <v>160.0</v>
+      </c>
+      <c r="F6" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="37">
+        <v>160.0</v>
+      </c>
+      <c r="F7" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="37">
+        <v>-20.0</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="37">
+        <v>180.0</v>
+      </c>
+      <c r="F8" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="G8" s="37">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="37">
+        <v>9.6</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="37">
+        <v>180.0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="37">
+        <v>180.0</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.07</v>
+      </c>
+      <c r="G10" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="37">
+        <v>-20.0</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="37">
+        <v>200.0</v>
+      </c>
+      <c r="F11" s="37">
+        <v>0.07</v>
+      </c>
+      <c r="G11" s="37">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="37">
+        <v>12.6</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="37">
+        <v>200.0</v>
+      </c>
+      <c r="F12" s="37">
+        <v>0.07</v>
+      </c>
+      <c r="G12" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="37">
+        <v>200.0</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="37">
+        <v>-20.0</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="37">
+        <v>220.0</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G14" s="37">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="37">
+        <v>16.0</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="37">
+        <v>220.0</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="37">
+        <v>-20.0</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="37">
+        <v>240.0</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G16" s="37">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="37">
+        <v>17.6</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="37">
+        <v>240.0</v>
+      </c>
+      <c r="F17" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G17" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="37">
+        <v>60.0</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="37">
+        <v>180.0</v>
+      </c>
+      <c r="F18" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="37">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="37">
+        <v>19.2</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="37">
+        <v>180.0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G19" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="37">
+        <v>60.0</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="37">
+        <v>120.0</v>
+      </c>
+      <c r="F20" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G20" s="37">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="37">
+        <v>60.0</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="37">
+        <v>60.0</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G21" s="37">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="37">
+        <v>7.2</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="37">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="37">
+        <v>60.0</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.08</v>
+      </c>
+      <c r="G23" s="37">
         <v>0.0</v>
       </c>
     </row>
@@ -2897,48 +6557,531 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="38">
+        <v>-120.0</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="38">
+        <v>120.0</v>
+      </c>
+      <c r="F2" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="39">
+        <v>-20.0</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="39">
+        <v>140.0</v>
+      </c>
+      <c r="F3" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="39">
+        <v>5.98333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="39">
+        <v>5.98333333333333</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="39">
+        <v>140.0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="39">
+        <v>-20.0</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="39">
+        <v>160.0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="39">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="39">
+        <v>160.0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="39">
+        <v>160.0</v>
+      </c>
+      <c r="F7" s="39">
+        <v>0.08</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="39">
+        <v>-20.0</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="39">
+        <v>180.0</v>
+      </c>
+      <c r="F8" s="39">
+        <v>0.08</v>
+      </c>
+      <c r="G8" s="39">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="39">
+        <v>12.8</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="39">
+        <v>180.0</v>
+      </c>
+      <c r="F9" s="39">
+        <v>0.08</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="39">
+        <v>180.0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.07</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="39">
+        <v>-20.0</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="F11" s="39">
+        <v>0.07</v>
+      </c>
+      <c r="G11" s="39">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="39">
+        <v>12.6</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="F12" s="39">
+        <v>0.07</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="39">
+        <v>200.0</v>
+      </c>
+      <c r="F13" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="39">
+        <v>-20.0</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="39">
+        <v>220.0</v>
+      </c>
+      <c r="F14" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G14" s="39">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="39">
+        <v>18.0</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="39">
+        <v>220.0</v>
+      </c>
+      <c r="F15" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G15" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="39">
+        <v>-20.0</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="39">
+        <v>240.0</v>
+      </c>
+      <c r="F16" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G16" s="39">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="39">
+        <v>19.8</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="39">
+        <v>240.0</v>
+      </c>
+      <c r="F17" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="39">
+        <v>180.0</v>
+      </c>
+      <c r="F18" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G18" s="39">
+        <v>21.5999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="39">
+        <v>21.5999999999999</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="39">
+        <v>180.0</v>
+      </c>
+      <c r="F19" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="39">
+        <v>120.0</v>
+      </c>
+      <c r="F20" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G20" s="39">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="F21" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G21" s="39">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="39">
+        <v>8.1</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G22" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="39">
+        <v>60.0</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="39">
+        <v>0.09</v>
+      </c>
+      <c r="G23" s="39">
         <v>0.0</v>
       </c>
     </row>
@@ -2958,48 +7101,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
-        <v>125</v>
+      <c r="A2" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="20">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="20">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="19">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="19">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="19">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="19">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="19">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="19">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="19">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="19">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="19">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="19">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="19">
+        <v>0.997222222222222</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="19">
         <v>0.0</v>
       </c>
     </row>
@@ -3019,48 +7392,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="21">
+        <v>5.98333333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="21">
+        <v>5.98333333333333</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="21">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="21">
+        <v>5.0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="21">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.99444444444444</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
     </row>
@@ -3080,48 +7683,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="23">
+        <v>60.0</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="23">
+        <v>3.98888888888888</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="23">
+        <v>3.98888888888888</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="23">
+        <v>60.0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="23">
+        <v>40.0</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="23">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="23">
+        <v>40.0</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="23">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="23">
         <v>0.0</v>
       </c>
     </row>
@@ -3141,48 +7974,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="21">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="21">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
     </row>
@@ -3202,48 +8265,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20">
+        <v>-90.0</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="21">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="21">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
     </row>
@@ -3263,48 +8556,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
+      <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20">
+        <v>100.0</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="20">
         <v>-100.0</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="F2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E3" s="21">
+        <v>-80.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="21">
+        <v>-4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="21">
+        <v>-4.98611111111111</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21">
+        <v>-80.0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="21">
+        <v>-60.0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="21">
+        <v>-4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="21">
+        <v>-4.0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21">
+        <v>-60.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21">
+        <v>-40.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>-3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>-3.0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="21">
+        <v>-40.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="21">
+        <v>-2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21">
+        <v>-2.0</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="21">
+        <v>-1.0</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>-20.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
     </row>
@@ -3324,48 +8847,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="E2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="21">
+        <v>9.97222222222222</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="21">
+        <v>9.97222222222222</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="21">
+        <v>8.0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="21">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="21">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
     </row>
@@ -3385,48 +9138,278 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="25">
-        <v>-100.0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="23">
+      <c r="B2" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G3" s="21">
+        <v>4.98611111111111</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="21">
+        <v>4.98611111111111</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="21">
+        <v>80.0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="21">
+        <v>60.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G7" s="21">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="21">
         <v>0.0</v>
       </c>
     </row>
